--- a/data/trans_orig/Q45A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q45A_R-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>14471</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8625</v>
+        <v>8488</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22781</v>
+        <v>23297</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02928957541343657</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01745697193782965</v>
+        <v>0.01717902509183371</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04611041815121749</v>
+        <v>0.04715465514587776</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -764,19 +764,19 @@
         <v>20266</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12670</v>
+        <v>13428</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30633</v>
+        <v>31423</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04335112194250602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02710222055090906</v>
+        <v>0.0287232130107049</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06552563665494605</v>
+        <v>0.06721724189509044</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -785,19 +785,19 @@
         <v>34737</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24851</v>
+        <v>25803</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49045</v>
+        <v>48241</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03612603673968654</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0258447897200674</v>
+        <v>0.02683523412749902</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05100576831796477</v>
+        <v>0.05016988679065728</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>74653</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59886</v>
+        <v>60853</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92094</v>
+        <v>92533</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1511002608998923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1212104059919854</v>
+        <v>0.1231690536404369</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1864002382677751</v>
+        <v>0.1872885178523907</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>79</v>
@@ -835,19 +835,19 @@
         <v>73657</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59696</v>
+        <v>58951</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90136</v>
+        <v>90451</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1575588134614674</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1276954648160017</v>
+        <v>0.1261004009487166</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.192809542039295</v>
+        <v>0.1934836266556827</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>156</v>
@@ -856,19 +856,19 @@
         <v>148310</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>127222</v>
+        <v>126969</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>171104</v>
+        <v>171394</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1542402885433299</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1323086725345736</v>
+        <v>0.1320462255656479</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1779449623803683</v>
+        <v>0.1782466692117499</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>281707</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>261235</v>
+        <v>259907</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>303909</v>
+        <v>302939</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5701839102615198</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5287474714595375</v>
+        <v>0.5260598446360742</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6151207607240801</v>
+        <v>0.6131568713959233</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>271</v>
@@ -906,19 +906,19 @@
         <v>258487</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>234340</v>
+        <v>236385</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>276996</v>
+        <v>279245</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5529272991063825</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5012737619756396</v>
+        <v>0.5056472007149792</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5925190018173703</v>
+        <v>0.5973290364906313</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>555</v>
@@ -927,19 +927,19 @@
         <v>540195</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>512379</v>
+        <v>510791</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>568132</v>
+        <v>570683</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5617940681811809</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5328660936075198</v>
+        <v>0.5312146747637297</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5908484861825081</v>
+        <v>0.5935016983584086</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>68593</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54541</v>
+        <v>54648</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84708</v>
+        <v>85683</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1388344172369949</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1103935042178714</v>
+        <v>0.1106083932352217</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1714515684611411</v>
+        <v>0.1734239785012649</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -977,19 +977,19 @@
         <v>72786</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59103</v>
+        <v>57302</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89277</v>
+        <v>88924</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1556962324798433</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1264268297635108</v>
+        <v>0.1225734968526753</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1909721336803689</v>
+        <v>0.1902171925704296</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>148</v>
@@ -998,19 +998,19 @@
         <v>141379</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>121280</v>
+        <v>121709</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>163288</v>
+        <v>162133</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1470323169175028</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1261290682250079</v>
+        <v>0.1265757357258954</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1698168167183617</v>
+        <v>0.1686153338959644</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>54639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40863</v>
+        <v>41684</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>70806</v>
+        <v>70032</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1105918361881564</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08270774502527707</v>
+        <v>0.08436938462841519</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1433129090958464</v>
+        <v>0.1417470024079651</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>41</v>
@@ -1048,19 +1048,19 @@
         <v>42292</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30592</v>
+        <v>31705</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56786</v>
+        <v>56349</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09046653300980075</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06543893641856191</v>
+        <v>0.06782040634904041</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1214696136216978</v>
+        <v>0.1205356843249947</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>93</v>
@@ -1069,19 +1069,19 @@
         <v>96932</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>78764</v>
+        <v>77706</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>115754</v>
+        <v>116701</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1008072896182999</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08191283665917565</v>
+        <v>0.08081282032360895</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1203822319161942</v>
+        <v>0.1213672686775629</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>23128</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14492</v>
+        <v>14447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34707</v>
+        <v>34656</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03144520188618303</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01970343124436286</v>
+        <v>0.01964241723907448</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04718937230258424</v>
+        <v>0.04711908601580637</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1194,19 +1194,19 @@
         <v>12047</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6292</v>
+        <v>5899</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21476</v>
+        <v>21200</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01926016636274043</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0100595544171946</v>
+        <v>0.00943057332055717</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03433393088534591</v>
+        <v>0.03389321711726701</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -1215,19 +1215,19 @@
         <v>35175</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23242</v>
+        <v>24165</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48252</v>
+        <v>48463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02584508226540007</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01707753917023514</v>
+        <v>0.01775552244832181</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03545352531663321</v>
+        <v>0.0356086807884542</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>104534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83774</v>
+        <v>86614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>125497</v>
+        <v>124651</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1421282734310898</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1139027132400583</v>
+        <v>0.1177638329839527</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1706313612687919</v>
+        <v>0.1694810196673044</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -1265,19 +1265,19 @@
         <v>58990</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>45668</v>
+        <v>44342</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75780</v>
+        <v>72508</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09431000422789459</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07301182363129753</v>
+        <v>0.07089047890174448</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.121152837065365</v>
+        <v>0.1159215359156139</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>158</v>
@@ -1286,19 +1286,19 @@
         <v>163524</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>141536</v>
+        <v>139918</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>188643</v>
+        <v>190689</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1201514784450184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1039953255204613</v>
+        <v>0.1028062924487547</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1386079276621646</v>
+        <v>0.1401113701001268</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>407309</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>379263</v>
+        <v>378308</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>436306</v>
+        <v>432603</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5537929243045919</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5156610063624967</v>
+        <v>0.514362988671565</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5932187878909062</v>
+        <v>0.5881840911707014</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>320</v>
@@ -1336,19 +1336,19 @@
         <v>337525</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>312471</v>
+        <v>309961</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>360669</v>
+        <v>359460</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5396137674611695</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4995588620640061</v>
+        <v>0.4955460106767574</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5766151770974427</v>
+        <v>0.5746822739721146</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>710</v>
@@ -1357,19 +1357,19 @@
         <v>744833</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>705720</v>
+        <v>709828</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>780036</v>
+        <v>782825</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5472763266063544</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5185375886319968</v>
+        <v>0.5215554190040069</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5731419165108482</v>
+        <v>0.5751914747411727</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>133314</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>112387</v>
+        <v>112690</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156031</v>
+        <v>156109</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1812588127262542</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1528061193334336</v>
+        <v>0.1532176289137205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2121457111980249</v>
+        <v>0.2122519074645424</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>129</v>
@@ -1407,19 +1407,19 @@
         <v>135440</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>115980</v>
+        <v>115864</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>158380</v>
+        <v>158871</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2165321629937147</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1854210288919627</v>
+        <v>0.1852361742069496</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2532075870032424</v>
+        <v>0.253993523300006</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>257</v>
@@ -1428,19 +1428,19 @@
         <v>268753</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>239853</v>
+        <v>239245</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>301054</v>
+        <v>299002</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1974700892993524</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1762350137696783</v>
+        <v>0.1757883592311616</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2212034449668913</v>
+        <v>0.2196955703070571</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>67205</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51569</v>
+        <v>52556</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>84847</v>
+        <v>85060</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09137478765188106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07011584931084656</v>
+        <v>0.07145658887022356</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1153606800940454</v>
+        <v>0.1156508733341567</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>74</v>
@@ -1478,19 +1478,19 @@
         <v>81492</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65006</v>
+        <v>64493</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>100053</v>
+        <v>100736</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1302838989544808</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1039268386948496</v>
+        <v>0.1031077876309627</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1599585156253183</v>
+        <v>0.161050735401386</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>137</v>
@@ -1499,19 +1499,19 @@
         <v>148697</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126923</v>
+        <v>124974</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>174471</v>
+        <v>176039</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1092570233838746</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09325845308355223</v>
+        <v>0.09182626184729803</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.128194850928189</v>
+        <v>0.1293472514458157</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>10160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4987</v>
+        <v>4957</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20064</v>
+        <v>19066</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0159082839490435</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007808683321945562</v>
+        <v>0.007760740841912579</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03141603115318179</v>
+        <v>0.0298530720359661</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1624,19 +1624,19 @@
         <v>12207</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6282</v>
+        <v>5914</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21072</v>
+        <v>21202</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01769721234658536</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009107776268573438</v>
+        <v>0.008574153743470854</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03055020792370482</v>
+        <v>0.0307391543857443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1645,19 +1645,19 @@
         <v>22367</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14345</v>
+        <v>13624</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34650</v>
+        <v>33893</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01683713978185715</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01079849138168827</v>
+        <v>0.01025560773021135</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02608395447369647</v>
+        <v>0.02551402890177859</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>58338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45735</v>
+        <v>44652</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75079</v>
+        <v>72568</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09134278177279453</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0716103969458439</v>
+        <v>0.06991424392132146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1175558621353637</v>
+        <v>0.1136243757399456</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>57</v>
@@ -1695,19 +1695,19 @@
         <v>58778</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45470</v>
+        <v>45080</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74747</v>
+        <v>75594</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08521644585503575</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06592327821577493</v>
+        <v>0.06535735651437459</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.108369842940733</v>
+        <v>0.1095971361529598</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -1716,19 +1716,19 @@
         <v>117115</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>99476</v>
+        <v>97448</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>139716</v>
+        <v>137766</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0881618367675024</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07488361415881924</v>
+        <v>0.07335670165645894</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.105175311006612</v>
+        <v>0.1037072235037218</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>304304</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>277016</v>
+        <v>278728</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>330334</v>
+        <v>329081</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.476465981344067</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4337407202409309</v>
+        <v>0.4364211996343732</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5172235582363712</v>
+        <v>0.5152608177227324</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>365</v>
@@ -1766,19 +1766,19 @@
         <v>379091</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>352399</v>
+        <v>352620</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>405134</v>
+        <v>403584</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5496115300453567</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5109131051559501</v>
+        <v>0.5112338381642009</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.587369185118639</v>
+        <v>0.5851214457793523</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>661</v>
@@ -1787,19 +1787,19 @@
         <v>683395</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>649115</v>
+        <v>644662</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>722704</v>
+        <v>718413</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5144449578357509</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4886399209916056</v>
+        <v>0.4852877874724925</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.54403608448484</v>
+        <v>0.5408060759203123</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>156335</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>133696</v>
+        <v>135742</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>176428</v>
+        <v>179371</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.244782157219489</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2093353225288658</v>
+        <v>0.2125392251993658</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2762429917798747</v>
+        <v>0.2808518925206469</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>135</v>
@@ -1837,19 +1837,19 @@
         <v>140676</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>120737</v>
+        <v>121127</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>160978</v>
+        <v>163107</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2039541784902812</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1750467089254424</v>
+        <v>0.1756112617527371</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2333884079632051</v>
+        <v>0.2364745919305556</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>287</v>
@@ -1858,19 +1858,19 @@
         <v>297011</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>262617</v>
+        <v>261369</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>326445</v>
+        <v>328448</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2235832617037566</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1976921227919822</v>
+        <v>0.1967533263976693</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2457407755476781</v>
+        <v>0.2472486038903255</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>109532</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>91353</v>
+        <v>91047</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>130794</v>
+        <v>130053</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.171500795714606</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1430363595183539</v>
+        <v>0.1425571173192331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2047915519607382</v>
+        <v>0.2036312844070713</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>90</v>
@@ -1908,19 +1908,19 @@
         <v>98992</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>81412</v>
+        <v>81217</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>121396</v>
+        <v>119957</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.143520633262741</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1180328319914189</v>
+        <v>0.1177497346006512</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1760010136087239</v>
+        <v>0.1739157886436235</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>188</v>
@@ -1929,19 +1929,19 @@
         <v>208525</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>184248</v>
+        <v>183238</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>236921</v>
+        <v>237435</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1569728039111329</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1386981587894475</v>
+        <v>0.1379372546410773</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1783490354563239</v>
+        <v>0.1787356215382669</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>10751</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5753</v>
+        <v>5095</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19911</v>
+        <v>19407</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02070861823980388</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01108087353414248</v>
+        <v>0.009813955859873057</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0383535801519144</v>
+        <v>0.03738163734419439</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -2054,19 +2054,19 @@
         <v>8056</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3899</v>
+        <v>3912</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15044</v>
+        <v>15203</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01562246559745216</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00756236265416502</v>
+        <v>0.00758754297255062</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02917531300166822</v>
+        <v>0.02948292925371544</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -2075,19 +2075,19 @@
         <v>18806</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11860</v>
+        <v>11262</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28492</v>
+        <v>28469</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01817415586449199</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01146082539002417</v>
+        <v>0.01088354790180793</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02753409560377013</v>
+        <v>0.02751189621923331</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>57400</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>43424</v>
+        <v>43804</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75055</v>
+        <v>75225</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.110566453179837</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08364574761746282</v>
+        <v>0.0843761812192672</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1445727326250505</v>
+        <v>0.1449020031262009</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>35</v>
@@ -2125,19 +2125,19 @@
         <v>37733</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>26426</v>
+        <v>27563</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>51303</v>
+        <v>50320</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07317692598842031</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05124811875358319</v>
+        <v>0.0534533201486764</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09949367553869323</v>
+        <v>0.0975867842970241</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>83</v>
@@ -2146,19 +2146,19 @@
         <v>95133</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>75627</v>
+        <v>76449</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>118464</v>
+        <v>119167</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09193501276488113</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07308469380999943</v>
+        <v>0.07387890740772722</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1144815468513198</v>
+        <v>0.1151604447952761</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>253791</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>230895</v>
+        <v>230440</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>277480</v>
+        <v>275261</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4888606987711561</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4447582223929024</v>
+        <v>0.4438822436336986</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5344927849255959</v>
+        <v>0.5302177801857323</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>239</v>
@@ -2196,19 +2196,19 @@
         <v>242766</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>219813</v>
+        <v>219112</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>263456</v>
+        <v>265225</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4708038238830113</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4262892573789151</v>
+        <v>0.4249303910849902</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5109290478407865</v>
+        <v>0.514358941740263</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>480</v>
@@ -2217,19 +2217,19 @@
         <v>496557</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>463469</v>
+        <v>465923</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>533420</v>
+        <v>530300</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4798628425844105</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4478871607153204</v>
+        <v>0.4502585993147238</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5154862994747594</v>
+        <v>0.5124718088569881</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>106712</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>86936</v>
+        <v>89030</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>125428</v>
+        <v>128021</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2055522040367548</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.167459941390934</v>
+        <v>0.1714932699105393</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2416035125981932</v>
+        <v>0.2465978424879059</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>123</v>
@@ -2267,19 +2267,19 @@
         <v>125552</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>106379</v>
+        <v>107079</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>146618</v>
+        <v>148152</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2434868056312079</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2063049122062129</v>
+        <v>0.2076617704657087</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2843411782436461</v>
+        <v>0.2873165334450679</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>226</v>
@@ -2288,19 +2288,19 @@
         <v>232264</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>206512</v>
+        <v>206373</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>259251</v>
+        <v>260289</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2244552585111744</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1995693217969838</v>
+        <v>0.1994353298304232</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2505349016870163</v>
+        <v>0.2515381446741984</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>90494</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>74542</v>
+        <v>73608</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>109956</v>
+        <v>110058</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1743120257724483</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1435852931649505</v>
+        <v>0.1417872903777822</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2118010369360024</v>
+        <v>0.2119985479296003</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>97</v>
@@ -2338,19 +2338,19 @@
         <v>101535</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>85941</v>
+        <v>85037</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>120037</v>
+        <v>122481</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1969099788999083</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1666674842856684</v>
+        <v>0.1649144076855927</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2327917889356761</v>
+        <v>0.2375309748694614</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>179</v>
@@ -2359,19 +2359,19 @@
         <v>192029</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>166466</v>
+        <v>167360</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>219559</v>
+        <v>218758</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.185572730275042</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1608694532677681</v>
+        <v>0.1617334297958735</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2121779402607333</v>
+        <v>0.2114034980550603</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>6754</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2978</v>
+        <v>2776</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13192</v>
+        <v>13452</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01746514894655094</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007701829762975444</v>
+        <v>0.007179769067377259</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03411431872498778</v>
+        <v>0.03478690459760549</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6094</v>
+        <v>5052</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.00250742131660904</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01508556463375537</v>
+        <v>0.01250639425862776</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -2505,19 +2505,19 @@
         <v>7767</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3808</v>
+        <v>3215</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15376</v>
+        <v>15144</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009822879184579263</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004816154203295417</v>
+        <v>0.004066551061942184</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0194464809825855</v>
+        <v>0.0191526935454761</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>29925</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20770</v>
+        <v>20958</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41719</v>
+        <v>42325</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07738247790979891</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05370911248789752</v>
+        <v>0.05419491598929047</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1078827232679375</v>
+        <v>0.1094498796263862</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>25</v>
@@ -2555,19 +2555,19 @@
         <v>25051</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16151</v>
+        <v>16864</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34839</v>
+        <v>36137</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06201037213640005</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03997814416086919</v>
+        <v>0.04174471637992436</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08623842526225708</v>
+        <v>0.08945018261319949</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>55</v>
@@ -2576,19 +2576,19 @@
         <v>54976</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41282</v>
+        <v>41524</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>68966</v>
+        <v>70390</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06952849219510299</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05220925324494637</v>
+        <v>0.05251572221689836</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0872212700754187</v>
+        <v>0.08902327597331264</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>162019</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>142843</v>
+        <v>143368</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>182135</v>
+        <v>180754</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.418966863623068</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3693802579451513</v>
+        <v>0.3707386527419003</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4709857697703489</v>
+        <v>0.4674140690594065</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>171</v>
@@ -2626,19 +2626,19 @@
         <v>174511</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>155768</v>
+        <v>153083</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>193101</v>
+        <v>193263</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4319733957863492</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.385578552972059</v>
+        <v>0.3789318754025747</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4779888218600356</v>
+        <v>0.4783903438382788</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>335</v>
@@ -2647,19 +2647,19 @@
         <v>336530</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>310555</v>
+        <v>310401</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>366547</v>
+        <v>363880</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4256122197840254</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3927612031361288</v>
+        <v>0.392567389781347</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4635745385073337</v>
+        <v>0.4602027703157835</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>95249</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>78890</v>
+        <v>80078</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>112549</v>
+        <v>113409</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2463055377247316</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2040042851637147</v>
+        <v>0.2070753865945604</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2910428375938564</v>
+        <v>0.2932663125279518</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>94</v>
@@ -2697,19 +2697,19 @@
         <v>95425</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>80230</v>
+        <v>80338</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>116602</v>
+        <v>113096</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2362090533566089</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1985963581302307</v>
+        <v>0.1988642427513772</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2886284600700458</v>
+        <v>0.2799511344615576</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>192</v>
@@ -2718,19 +2718,19 @@
         <v>190674</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>167891</v>
+        <v>167304</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>215453</v>
+        <v>213872</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2411469963274229</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2123337002572525</v>
+        <v>0.2115907025915775</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2724849375081156</v>
+        <v>0.2704854125082837</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>92764</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>77709</v>
+        <v>75829</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>110566</v>
+        <v>109018</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2398799717958505</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2009496967412419</v>
+        <v>0.1960865155773152</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2859153751626398</v>
+        <v>0.2819115494455701</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>105</v>
@@ -2768,19 +2768,19 @@
         <v>107985</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>92655</v>
+        <v>92013</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>126855</v>
+        <v>127724</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2672997574040328</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2293528844988688</v>
+        <v>0.2277638667553185</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.314008959374282</v>
+        <v>0.3161596044988969</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>198</v>
@@ -2789,19 +2789,19 @@
         <v>200749</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>176731</v>
+        <v>176901</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>225974</v>
+        <v>225218</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2538894125088695</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2235134513517286</v>
+        <v>0.2237282522479695</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2857913185675739</v>
+        <v>0.2848348008932018</v>
       </c>
     </row>
     <row r="33">
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5182</v>
+        <v>5578</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003143830732580554</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01771003069051827</v>
+        <v>0.01906399556314766</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4830</v>
+        <v>5064</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002616112902643633</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01408434343846543</v>
+        <v>0.01476724337048746</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5491</v>
+        <v>6669</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002859066696386001</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.008640306876262426</v>
+        <v>0.01049401255776008</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>11651</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6456</v>
+        <v>6195</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19557</v>
+        <v>19065</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0398197273099114</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02206433283000085</v>
+        <v>0.0211724922191634</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06684149851269401</v>
+        <v>0.06515979750876096</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -2985,19 +2985,19 @@
         <v>8388</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4558</v>
+        <v>4540</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>15094</v>
+        <v>15494</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02446093431972246</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01328975411676935</v>
+        <v>0.01323942533726493</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04401404579678332</v>
+        <v>0.04517933152328187</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>22</v>
@@ -3006,19 +3006,19 @@
         <v>20039</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13126</v>
+        <v>12721</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>31388</v>
+        <v>29489</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03153190447192695</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02065468229268886</v>
+        <v>0.02001737124590982</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04939040427917568</v>
+        <v>0.04640152037824091</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>99285</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>83663</v>
+        <v>84827</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>114703</v>
+        <v>115450</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3393404740478748</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2859478361092986</v>
+        <v>0.2899230250293291</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3920371991853916</v>
+        <v>0.3945886480439078</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>160</v>
@@ -3056,19 +3056,19 @@
         <v>148349</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>130651</v>
+        <v>131072</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>166016</v>
+        <v>166381</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4325862124300819</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3809788001022464</v>
+        <v>0.3822073946740031</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4841052204737744</v>
+        <v>0.485169685527957</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>263</v>
@@ -3077,19 +3077,19 @@
         <v>247634</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>224313</v>
+        <v>224723</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>272644</v>
+        <v>269574</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3896571988453534</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3529619419369002</v>
+        <v>0.3536064491927252</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4290117254175366</v>
+        <v>0.4241800999049398</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>83840</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>68717</v>
+        <v>69396</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>98454</v>
+        <v>99669</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2865496195270624</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2348631497854825</v>
+        <v>0.2371849704222744</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3364998569744217</v>
+        <v>0.3406514008864948</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>72</v>
@@ -3127,19 +3127,19 @@
         <v>66014</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>52681</v>
+        <v>54212</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>79662</v>
+        <v>80240</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1924971769059692</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.153617776476218</v>
+        <v>0.158082777866104</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.232294473952053</v>
+        <v>0.2339806856825271</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>160</v>
@@ -3148,19 +3148,19 @@
         <v>149853</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>130641</v>
+        <v>129972</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>172122</v>
+        <v>170526</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2357975856646846</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.205566028254899</v>
+        <v>0.2045131009198144</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2708378224128601</v>
+        <v>0.2683268724483232</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>96888</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>80848</v>
+        <v>80476</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>112709</v>
+        <v>111605</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3311463483825708</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.276326017554769</v>
+        <v>0.2750520838776059</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3852198669124776</v>
+        <v>0.3814464536034091</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>129</v>
@@ -3198,19 +3198,19 @@
         <v>119286</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>102095</v>
+        <v>104340</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>136557</v>
+        <v>137082</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3478395634415828</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2977092706298061</v>
+        <v>0.304256453097949</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3982033466752167</v>
+        <v>0.3997339444056594</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>227</v>
@@ -3219,19 +3219,19 @@
         <v>216174</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>193533</v>
+        <v>193932</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>239500</v>
+        <v>239588</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.340154244321649</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3045283206557068</v>
+        <v>0.3051561483317457</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3768585422802</v>
+        <v>0.3769972106676376</v>
       </c>
     </row>
     <row r="39">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7223</v>
+        <v>7872</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.009900186661870926</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03456000556928834</v>
+        <v>0.03766731801085328</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6457</v>
+        <v>5259</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.00350105926805995</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01933700236674823</v>
+        <v>0.01574912954230167</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -3365,19 +3365,19 @@
         <v>3238</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>9588</v>
+        <v>8646</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.005964399644614895</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001898374791283639</v>
+        <v>0.001877507452166029</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01766064112978145</v>
+        <v>0.01592598086082341</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>6506</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2637</v>
+        <v>2795</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13671</v>
+        <v>13182</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03112988342681444</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01261611451976108</v>
+        <v>0.01337345293989518</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.06541439598366725</v>
+        <v>0.06307619228312321</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -3415,19 +3415,19 @@
         <v>5749</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2092</v>
+        <v>2098</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13793</v>
+        <v>12571</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01721831372124727</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006263756775482049</v>
+        <v>0.006283797868094129</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04130671402468968</v>
+        <v>0.03764841631670407</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>11</v>
@@ -3436,19 +3436,19 @@
         <v>12255</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>6489</v>
+        <v>6218</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>21181</v>
+        <v>21296</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02257356440591499</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01195205573441883</v>
+        <v>0.01145312770168652</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03901559911260526</v>
+        <v>0.03922648678139966</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>54408</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>43906</v>
+        <v>43620</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>68605</v>
+        <v>67926</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2603397537272242</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2100892482253342</v>
+        <v>0.2087189997783151</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3282752099222466</v>
+        <v>0.3250259093247016</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>79</v>
@@ -3486,19 +3486,19 @@
         <v>92571</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>77391</v>
+        <v>75028</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>111317</v>
+        <v>109226</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2772345098274361</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2317730555415126</v>
+        <v>0.2246963387425562</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3333775726807615</v>
+        <v>0.3271141131693828</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>136</v>
@@ -3507,19 +3507,19 @@
         <v>146978</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>126463</v>
+        <v>123392</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>169776</v>
+        <v>167320</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.270730883271423</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2329418226748428</v>
+        <v>0.2272860358127303</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3127231829270744</v>
+        <v>0.3081988974538331</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>61430</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>48969</v>
+        <v>49406</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>73274</v>
+        <v>74426</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2939398830670189</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2343152063441306</v>
+        <v>0.2364053684327571</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3506147385202238</v>
+        <v>0.3561270691726162</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>77</v>
@@ -3557,19 +3557,19 @@
         <v>87222</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>70759</v>
+        <v>72148</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>103395</v>
+        <v>107036</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2612142653052494</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.211911767037591</v>
+        <v>0.2160724914100814</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3096501652409545</v>
+        <v>0.3205554564925898</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>143</v>
@@ -3578,19 +3578,19 @@
         <v>148651</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>127301</v>
+        <v>126634</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>170995</v>
+        <v>170225</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.27381197287054</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2344854970500016</v>
+        <v>0.2332577866010405</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3149691676083487</v>
+        <v>0.3135498533625251</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>84575</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>70890</v>
+        <v>71162</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>98827</v>
+        <v>98874</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4046902931170716</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3392060620924479</v>
+        <v>0.3405114139161504</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4728868682535534</v>
+        <v>0.4731115031265631</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>128</v>
@@ -3628,19 +3628,19 @@
         <v>147197</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>128292</v>
+        <v>128893</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>165259</v>
+        <v>166327</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4408318518780072</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3842135011760854</v>
+        <v>0.3860130285045121</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4949225546456208</v>
+        <v>0.4981216304577546</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>216</v>
@@ -3649,19 +3649,19 @@
         <v>231772</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>209403</v>
+        <v>207853</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>257098</v>
+        <v>255059</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4269191798075072</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3857162798701302</v>
+        <v>0.382859877877107</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4735679248269509</v>
+        <v>0.4698121434460241</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>68252</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>51165</v>
+        <v>54285</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>86748</v>
+        <v>86723</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02083625562604561</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01561969347838599</v>
+        <v>0.0165724433288598</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02648265359034903</v>
+        <v>0.0264751649147095</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>54</v>
@@ -3774,19 +3774,19 @@
         <v>55655</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>41387</v>
+        <v>41835</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>71511</v>
+        <v>73227</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01646976803847081</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01224761038057971</v>
+        <v>0.01238013299719022</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02116223120500961</v>
+        <v>0.02166998553985662</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>119</v>
@@ -3795,19 +3795,19 @@
         <v>123907</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>103096</v>
+        <v>101922</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>147619</v>
+        <v>147776</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01861904041890844</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01549187633094301</v>
+        <v>0.01531544942740811</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02218212445621518</v>
+        <v>0.02220577626867919</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>343006</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>308875</v>
+        <v>310437</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>378197</v>
+        <v>382413</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1047138780329942</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0942943436190382</v>
+        <v>0.09477108067896767</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1154572269759525</v>
+        <v>0.1167443143651634</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>267</v>
@@ -3845,19 +3845,19 @@
         <v>268347</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>240856</v>
+        <v>238221</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>303314</v>
+        <v>300605</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.07941151010374871</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07127604958603057</v>
+        <v>0.07049619729798275</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.08975919808383821</v>
+        <v>0.08895759082850534</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>600</v>
@@ -3866,19 +3866,19 @@
         <v>611353</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>559598</v>
+        <v>564099</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>656593</v>
+        <v>659592</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.09186584083510031</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.08408876892908972</v>
+        <v>0.08476523461822177</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.09866390389203183</v>
+        <v>0.09911460997097687</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>1562822</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1505965</v>
+        <v>1506277</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1621123</v>
+        <v>1617221</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.4771030237041693</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.4597455718300453</v>
+        <v>0.4598408276021684</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4949015845993917</v>
+        <v>0.4937102662122875</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1605</v>
@@ -3916,19 +3916,19 @@
         <v>1633301</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1574544</v>
+        <v>1578974</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1689443</v>
+        <v>1688514</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4833398703239353</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.4659520780004397</v>
+        <v>0.4672629907903262</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4999538460642532</v>
+        <v>0.4996789490196568</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3140</v>
@@ -3937,19 +3937,19 @@
         <v>3196122</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>3122318</v>
+        <v>3115716</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>3284691</v>
+        <v>3278737</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.4802699698806058</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.4691796158677679</v>
+        <v>0.4681876664139461</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4935788778568755</v>
+        <v>0.4926841582978392</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>705471</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>663211</v>
+        <v>660314</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>752960</v>
+        <v>753841</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2153684656847413</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2024670757929468</v>
+        <v>0.2015827191048645</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2298660091396456</v>
+        <v>0.2301348053192921</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>707</v>
@@ -3987,19 +3987,19 @@
         <v>723115</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>678661</v>
+        <v>674854</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>773408</v>
+        <v>771873</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2139900506861264</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2008349200699437</v>
+        <v>0.1997082967517219</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2288732851008742</v>
+        <v>0.2284189745840967</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1413</v>
@@ -4008,19 +4008,19 @@
         <v>1428586</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1366411</v>
+        <v>1365883</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1496732</v>
+        <v>1494592</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2146685340725751</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2053256702090266</v>
+        <v>0.2052463889295901</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.224908587390006</v>
+        <v>0.2245869762394344</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>596097</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>554828</v>
+        <v>549590</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>639851</v>
+        <v>644745</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1819783769520496</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1693794804747126</v>
+        <v>0.1677805306716331</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1953357703297835</v>
+        <v>0.1968297349733381</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>664</v>
@@ -4058,19 +4058,19 @@
         <v>698780</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>648857</v>
+        <v>660169</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>745942</v>
+        <v>751771</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2067888008477187</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1920151334466805</v>
+        <v>0.1953627522576032</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2207453008485209</v>
+        <v>0.2224702218472289</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1238</v>
@@ -4079,19 +4079,19 @@
         <v>1294877</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1231618</v>
+        <v>1231175</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1361041</v>
+        <v>1360597</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1945766147928104</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1850708887747518</v>
+        <v>0.1850043365327224</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2045187637251759</v>
+        <v>0.2044521458939658</v>
       </c>
     </row>
     <row r="51">
@@ -4426,19 +4426,19 @@
         <v>9824</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4872</v>
+        <v>4833</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18345</v>
+        <v>17724</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02163237123309409</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01072868488774992</v>
+        <v>0.01064210663328222</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04039472352768308</v>
+        <v>0.03902669277749216</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -4447,19 +4447,19 @@
         <v>16155</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9125</v>
+        <v>8921</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25339</v>
+        <v>24572</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03763901749956371</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02126040760928232</v>
+        <v>0.02078564210027158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05903830254651857</v>
+        <v>0.0572500916317054</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -4468,19 +4468,19 @@
         <v>25979</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17365</v>
+        <v>16629</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37373</v>
+        <v>36323</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02940968939319813</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01965788178049699</v>
+        <v>0.01882475971551298</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04230845885814595</v>
+        <v>0.04111997224575772</v>
       </c>
     </row>
     <row r="5">
@@ -4497,19 +4497,19 @@
         <v>87989</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70947</v>
+        <v>72211</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106226</v>
+        <v>108150</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1937460340942384</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1562214941195831</v>
+        <v>0.1590033757212405</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2339023460849469</v>
+        <v>0.2381395458273272</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>81</v>
@@ -4518,19 +4518,19 @@
         <v>82378</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66994</v>
+        <v>66959</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>101499</v>
+        <v>99987</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1919340367694612</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1560890645020966</v>
+        <v>0.1560082038874493</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2364822723652467</v>
+        <v>0.2329610536505314</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>166</v>
@@ -4539,19 +4539,19 @@
         <v>170367</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>147226</v>
+        <v>149185</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>195252</v>
+        <v>195363</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1928656198297231</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1666681674263438</v>
+        <v>0.1688857806980679</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2210358840072457</v>
+        <v>0.2211625257538148</v>
       </c>
     </row>
     <row r="6">
@@ -4568,19 +4568,19 @@
         <v>223252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>202486</v>
+        <v>203947</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>244380</v>
+        <v>245118</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4915858142942037</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.445860492473949</v>
+        <v>0.4490771898761478</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5381095373559599</v>
+        <v>0.5397328177224687</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>197</v>
@@ -4589,19 +4589,19 @@
         <v>201782</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>180169</v>
+        <v>181825</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>224183</v>
+        <v>223983</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4701322163064565</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4197757754731304</v>
+        <v>0.4236349306728296</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5223246526514078</v>
+        <v>0.5218582952182692</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>418</v>
@@ -4610,19 +4610,19 @@
         <v>425033</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>397902</v>
+        <v>395631</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>457713</v>
+        <v>452835</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.481161928212633</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4504478018327446</v>
+        <v>0.4478766583520653</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5181568262889796</v>
+        <v>0.5126348273083579</v>
       </c>
     </row>
     <row r="7">
@@ -4639,19 +4639,19 @@
         <v>55681</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43726</v>
+        <v>42479</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69388</v>
+        <v>69964</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1226057622938502</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09628238952457227</v>
+        <v>0.0935360403743704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1527876886149919</v>
+        <v>0.1540569776941106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -4660,19 +4660,19 @@
         <v>68114</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54229</v>
+        <v>54253</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85260</v>
+        <v>84418</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1586982629257538</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1263482407037798</v>
+        <v>0.1264044124540178</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1986488867612151</v>
+        <v>0.1966863485777089</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>123</v>
@@ -4681,19 +4681,19 @@
         <v>123795</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104423</v>
+        <v>105407</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>144641</v>
+        <v>144543</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1401424065062035</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1182127973063047</v>
+        <v>0.1193265667757457</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1637413184459098</v>
+        <v>0.1636308753162812</v>
       </c>
     </row>
     <row r="8">
@@ -4710,19 +4710,19 @@
         <v>77400</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62079</v>
+        <v>60943</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>95055</v>
+        <v>92574</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1704300180846136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1366935630789868</v>
+        <v>0.1341933242174821</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2093048089542215</v>
+        <v>0.2038424983382022</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -4731,19 +4731,19 @@
         <v>60773</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48075</v>
+        <v>46775</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77631</v>
+        <v>76084</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1415964664987649</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1120098106557492</v>
+        <v>0.1089816417077187</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1808724123720924</v>
+        <v>0.1772676500067954</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>134</v>
@@ -4752,19 +4752,19 @@
         <v>138174</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>117492</v>
+        <v>117130</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>161845</v>
+        <v>160409</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1564203560582423</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.133008102383972</v>
+        <v>0.1325976742199952</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1832173557880374</v>
+        <v>0.1815923646786249</v>
       </c>
     </row>
     <row r="9">
@@ -4856,19 +4856,19 @@
         <v>21103</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12747</v>
+        <v>12489</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32993</v>
+        <v>33932</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03075988645538414</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01857999060270295</v>
+        <v>0.01820448322027955</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04809010232005401</v>
+        <v>0.0494590266020233</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -4877,19 +4877,19 @@
         <v>12189</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6886</v>
+        <v>6187</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20498</v>
+        <v>20800</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02000647125879312</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0113022003149875</v>
+        <v>0.01015535756393899</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03364436071553973</v>
+        <v>0.03413988868597607</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -4898,19 +4898,19 @@
         <v>33292</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22095</v>
+        <v>23434</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46762</v>
+        <v>47400</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02570191436917061</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0170576687953689</v>
+        <v>0.01809127116157209</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03610044473135519</v>
+        <v>0.03659310870961151</v>
       </c>
     </row>
     <row r="11">
@@ -4927,19 +4927,19 @@
         <v>84802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69564</v>
+        <v>70256</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102200</v>
+        <v>102790</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1236081957211684</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1013975353633886</v>
+        <v>0.1024061345718151</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1489667948859666</v>
+        <v>0.1498277006695551</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>74</v>
@@ -4948,19 +4948,19 @@
         <v>77490</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>62778</v>
+        <v>61983</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94764</v>
+        <v>96155</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1271858044158317</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1030390095901042</v>
+        <v>0.1017331208781658</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1555369131788982</v>
+        <v>0.15782106232994</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>158</v>
@@ -4969,19 +4969,19 @@
         <v>162293</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>139614</v>
+        <v>139954</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>187697</v>
+        <v>188839</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1252909583209738</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1077828086734894</v>
+        <v>0.1080455710751907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1449029817916555</v>
+        <v>0.1457848562237995</v>
       </c>
     </row>
     <row r="12">
@@ -4998,19 +4998,19 @@
         <v>295703</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>269364</v>
+        <v>271108</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>321708</v>
+        <v>322812</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4310178945486231</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3926267974936639</v>
+        <v>0.3951684310738186</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4689233339765857</v>
+        <v>0.4705326872418956</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>233</v>
@@ -5019,19 +5019,19 @@
         <v>251022</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>224583</v>
+        <v>223962</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>275239</v>
+        <v>275704</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4120053888854704</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3686108929383612</v>
+        <v>0.3675908862825618</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.451753396004983</v>
+        <v>0.452516211657334</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>527</v>
@@ -5040,19 +5040,19 @@
         <v>546725</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>510503</v>
+        <v>510985</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>580658</v>
+        <v>584061</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4220751799621271</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3941110518448154</v>
+        <v>0.3944835433753083</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4482717420204713</v>
+        <v>0.4508986185559498</v>
       </c>
     </row>
     <row r="13">
@@ -5069,19 +5069,19 @@
         <v>128168</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>109258</v>
+        <v>108167</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152175</v>
+        <v>150068</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1868183870750051</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1592557004182144</v>
+        <v>0.1576651047319885</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2218107097556087</v>
+        <v>0.2187391710008642</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>126</v>
@@ -5090,19 +5090,19 @@
         <v>132739</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>113413</v>
+        <v>112245</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>155673</v>
+        <v>154598</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2178666478594837</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1861467258166423</v>
+        <v>0.1842292274770288</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2555080524571614</v>
+        <v>0.2537437332027539</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>246</v>
@@ -5111,19 +5111,19 @@
         <v>260908</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>231654</v>
+        <v>231573</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>293418</v>
+        <v>287832</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2014222346436506</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1788380986274326</v>
+        <v>0.1787755374996526</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2265203918183078</v>
+        <v>0.2222082863041909</v>
       </c>
     </row>
     <row r="14">
@@ -5140,19 +5140,19 @@
         <v>156281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>133989</v>
+        <v>133594</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>178057</v>
+        <v>177736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2277956361998192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1953026545855596</v>
+        <v>0.1947274334589356</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2595372663861076</v>
+        <v>0.2590691440161996</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>125</v>
@@ -5161,19 +5161,19 @@
         <v>135828</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>114511</v>
+        <v>116522</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>158187</v>
+        <v>158643</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.222935687580421</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1879475863551578</v>
+        <v>0.1912496509550221</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2596336784001335</v>
+        <v>0.260382092474832</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>275</v>
@@ -5182,19 +5182,19 @@
         <v>292109</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>262716</v>
+        <v>265666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>324721</v>
+        <v>326781</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.225509712704078</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2028185479772936</v>
+        <v>0.2050958347585866</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2506867243563201</v>
+        <v>0.2522772030162563</v>
       </c>
     </row>
     <row r="15">
@@ -5286,19 +5286,19 @@
         <v>14432</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8910</v>
+        <v>8370</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24564</v>
+        <v>23247</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02119520612625475</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01308494085049189</v>
+        <v>0.01229259701249605</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03607385804622358</v>
+        <v>0.03414042438070874</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -5307,19 +5307,19 @@
         <v>7934</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3068</v>
+        <v>3041</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15381</v>
+        <v>15541</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01116132338936307</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004315991353534642</v>
+        <v>0.00427783770854181</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02163718841828865</v>
+        <v>0.02186293744715989</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -5328,19 +5328,19 @@
         <v>22366</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15064</v>
+        <v>14621</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34064</v>
+        <v>33921</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01607040436130096</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01082390860781342</v>
+        <v>0.01050510310059883</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02447548788062135</v>
+        <v>0.02437274452790275</v>
       </c>
     </row>
     <row r="17">
@@ -5357,19 +5357,19 @@
         <v>66409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52755</v>
+        <v>51581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83483</v>
+        <v>82733</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09752713649139713</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07747592102927887</v>
+        <v>0.07575168630359416</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.122602007615267</v>
+        <v>0.1215004096004962</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>57</v>
@@ -5378,19 +5378,19 @@
         <v>63318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48496</v>
+        <v>48498</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79063</v>
+        <v>82118</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08907334717029318</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0682231562912852</v>
+        <v>0.06822536629528379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1112226754808243</v>
+        <v>0.1155209971053419</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>123</v>
@@ -5399,19 +5399,19 @@
         <v>129727</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>108545</v>
+        <v>107864</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>152291</v>
+        <v>152613</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09320936683339115</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07799038404802335</v>
+        <v>0.07750075194785483</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1094223254746084</v>
+        <v>0.1096532401957021</v>
       </c>
     </row>
     <row r="18">
@@ -5428,19 +5428,19 @@
         <v>292658</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>267668</v>
+        <v>264005</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>319754</v>
+        <v>318498</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4297938453868687</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3930938778188668</v>
+        <v>0.3877146170630438</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4695868790964942</v>
+        <v>0.4677415441752634</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>260</v>
@@ -5449,19 +5449,19 @@
         <v>275392</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>247384</v>
+        <v>250027</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>301030</v>
+        <v>305078</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3874119280665285</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3480118523562181</v>
+        <v>0.3517300105848574</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4234792665701949</v>
+        <v>0.429173598987041</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>539</v>
@@ -5470,19 +5470,19 @@
         <v>568050</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>530445</v>
+        <v>528839</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>605066</v>
+        <v>603578</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4081472973475112</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3811280850190605</v>
+        <v>0.3799736157383701</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4347432763183423</v>
+        <v>0.4336744297397079</v>
       </c>
     </row>
     <row r="19">
@@ -5499,19 +5499,19 @@
         <v>153750</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>132380</v>
+        <v>130852</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>175264</v>
+        <v>177707</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2257948011049167</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1944112385036032</v>
+        <v>0.1921678071944724</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2573901196808512</v>
+        <v>0.2609775539752226</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>159</v>
@@ -5520,19 +5520,19 @@
         <v>169564</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>146744</v>
+        <v>147350</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>193099</v>
+        <v>192968</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.238537385043136</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2064348907021353</v>
+        <v>0.2072877199962251</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2716452580449585</v>
+        <v>0.2714606561164155</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>302</v>
@@ -5541,19 +5541,19 @@
         <v>323314</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>292197</v>
+        <v>289668</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>360376</v>
+        <v>355251</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2323030709710332</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2099454175231154</v>
+        <v>0.2081283243778418</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2589325831843747</v>
+        <v>0.2552499414339002</v>
       </c>
     </row>
     <row r="20">
@@ -5570,19 +5570,19 @@
         <v>153678</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>130457</v>
+        <v>133757</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>175168</v>
+        <v>177281</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2256890108905627</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1915876383719926</v>
+        <v>0.1964331710909415</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2572489078178271</v>
+        <v>0.2603523930973487</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>183</v>
@@ -5591,19 +5591,19 @@
         <v>194642</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>171444</v>
+        <v>171475</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>218223</v>
+        <v>218828</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2738160163306793</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2411815631925084</v>
+        <v>0.2412249762612666</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3069883730623525</v>
+        <v>0.3078402023330846</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>330</v>
@@ -5612,19 +5612,19 @@
         <v>348320</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>316253</v>
+        <v>314091</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>381725</v>
+        <v>384133</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2502698604867635</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.227229977580923</v>
+        <v>0.2256764370518752</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2742715904468082</v>
+        <v>0.2760021102068493</v>
       </c>
     </row>
     <row r="21">
@@ -5716,19 +5716,19 @@
         <v>6133</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2118</v>
+        <v>2188</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12202</v>
+        <v>12575</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009978920023042424</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003445307475548823</v>
+        <v>0.00355981486953283</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01985302537998676</v>
+        <v>0.0204604474812039</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -5737,19 +5737,19 @@
         <v>10401</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5184</v>
+        <v>5171</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18467</v>
+        <v>19472</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01696851882377162</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008457978384419047</v>
+        <v>0.008435995537501793</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0301274503921376</v>
+        <v>0.0317664240864849</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -5758,19 +5758,19 @@
         <v>16534</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9575</v>
+        <v>9310</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26989</v>
+        <v>26355</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0134690208759843</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007799582044164404</v>
+        <v>0.007584023128998369</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0219857654558872</v>
+        <v>0.02146889337320398</v>
       </c>
     </row>
     <row r="23">
@@ -5787,19 +5787,19 @@
         <v>61440</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>47824</v>
+        <v>47634</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>81144</v>
+        <v>79419</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09996469947365341</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07781039959175891</v>
+        <v>0.07750211888331675</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1320231378168166</v>
+        <v>0.1292167450735417</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -5808,19 +5808,19 @@
         <v>39733</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27528</v>
+        <v>28463</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>55118</v>
+        <v>55772</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06482103197443601</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04490925054983806</v>
+        <v>0.04643423521153633</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08991971012877238</v>
+        <v>0.09098753715587483</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>86</v>
@@ -5829,19 +5829,19 @@
         <v>101173</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>81622</v>
+        <v>81861</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>123702</v>
+        <v>125065</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08241648999677638</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0664900282781954</v>
+        <v>0.06668439721270861</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1007690574798999</v>
+        <v>0.1018788899257345</v>
       </c>
     </row>
     <row r="24">
@@ -5858,19 +5858,19 @@
         <v>241911</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>216481</v>
+        <v>217199</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>266372</v>
+        <v>269042</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.393596090255781</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3522210219930553</v>
+        <v>0.3533895403890848</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4333944384183683</v>
+        <v>0.4377398315615517</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>181</v>
@@ -5879,19 +5879,19 @@
         <v>206056</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>179876</v>
+        <v>181295</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>231297</v>
+        <v>232046</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3361628470399905</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2934521895547237</v>
+        <v>0.2957665418241836</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3773414437785491</v>
+        <v>0.3785631262997966</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>401</v>
@@ -5900,19 +5900,19 @@
         <v>447967</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>410897</v>
+        <v>412406</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>482135</v>
+        <v>487599</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3649180764170272</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3347204350195404</v>
+        <v>0.3359499324273243</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3927515385318339</v>
+        <v>0.3972028394516506</v>
       </c>
     </row>
     <row r="25">
@@ -5929,19 +5929,19 @@
         <v>133886</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>111319</v>
+        <v>113735</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>154905</v>
+        <v>156530</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2178359573760008</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1811195853531121</v>
+        <v>0.1850497365358662</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2520344365097828</v>
+        <v>0.2546791625980506</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>126</v>
@@ -5950,19 +5950,19 @@
         <v>141724</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>121085</v>
+        <v>121963</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>166501</v>
+        <v>165462</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2312097100509552</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1975400978532473</v>
+        <v>0.1989714096473381</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2716311532921319</v>
+        <v>0.2699367604467796</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>245</v>
@@ -5971,19 +5971,19 @@
         <v>275609</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>246294</v>
+        <v>245450</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>309727</v>
+        <v>311011</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2245138436107618</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2006335520151372</v>
+        <v>0.1999458677169179</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2523066065085286</v>
+        <v>0.2533524196410882</v>
       </c>
     </row>
     <row r="26">
@@ -6000,19 +6000,19 @@
         <v>171247</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>149563</v>
+        <v>148347</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>196608</v>
+        <v>194776</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2786243328715224</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2433426198180896</v>
+        <v>0.2413649205748815</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3198875072056048</v>
+        <v>0.3169068305547436</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>187</v>
@@ -6021,19 +6021,19 @@
         <v>215052</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>192458</v>
+        <v>188307</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>243012</v>
+        <v>240943</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3508378921108466</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3139782041816139</v>
+        <v>0.3072066325698418</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.39645253346105</v>
+        <v>0.3930778298884423</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>337</v>
@@ -6042,19 +6042,19 @@
         <v>386299</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>352090</v>
+        <v>353126</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>421646</v>
+        <v>424564</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3146825690994502</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2868156575613582</v>
+        <v>0.2876598248658211</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3434765065888274</v>
+        <v>0.3458535066614555</v>
       </c>
     </row>
     <row r="27">
@@ -6146,19 +6146,19 @@
         <v>6613</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2986</v>
+        <v>2604</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14289</v>
+        <v>14685</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01540053944267364</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006952408137014607</v>
+        <v>0.006064037623735508</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0332735751463946</v>
+        <v>0.03419560216008968</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5483</v>
+        <v>5472</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002442038925144802</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01224530495212941</v>
+        <v>0.01222005786428882</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -6188,19 +6188,19 @@
         <v>7707</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3137</v>
+        <v>3079</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15387</v>
+        <v>15076</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00878560141203648</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003575974755519984</v>
+        <v>0.003509731676221088</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01754044394151457</v>
+        <v>0.01718635873804676</v>
       </c>
     </row>
     <row r="29">
@@ -6217,19 +6217,19 @@
         <v>32550</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>21751</v>
+        <v>21840</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>45838</v>
+        <v>46515</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07579759086642079</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0506501814854742</v>
+        <v>0.05085930391959909</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1067415749389465</v>
+        <v>0.1083178435860911</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -6238,19 +6238,19 @@
         <v>21814</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13976</v>
+        <v>13519</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32715</v>
+        <v>32626</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04871330021540262</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03121058940450976</v>
+        <v>0.03018980412037291</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07305700157928584</v>
+        <v>0.07285800541927624</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>50</v>
@@ -6259,19 +6259,19 @@
         <v>54364</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>40082</v>
+        <v>41132</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>69623</v>
+        <v>70444</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06197184736948599</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04569137262999395</v>
+        <v>0.046888807120075</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07936701778202897</v>
+        <v>0.08030323804354447</v>
       </c>
     </row>
     <row r="30">
@@ -6288,19 +6288,19 @@
         <v>120073</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>101542</v>
+        <v>101936</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>140723</v>
+        <v>139778</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.279611419254184</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2364585831247735</v>
+        <v>0.2373748556406242</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3276971552135416</v>
+        <v>0.3254973655809434</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>122</v>
@@ -6309,19 +6309,19 @@
         <v>133380</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>114905</v>
+        <v>115732</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>154807</v>
+        <v>155259</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2978562387485403</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2565999408361646</v>
+        <v>0.2584454486623266</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3457050496248062</v>
+        <v>0.3467156321362896</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>233</v>
@@ -6330,19 +6330,19 @@
         <v>253453</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>227011</v>
+        <v>226928</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>283999</v>
+        <v>283564</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2889248695389661</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2587817966402573</v>
+        <v>0.2586876658062053</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3237455092456599</v>
+        <v>0.32324925501026</v>
       </c>
     </row>
     <row r="31">
@@ -6359,19 +6359,19 @@
         <v>117293</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>99162</v>
+        <v>98701</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>137142</v>
+        <v>138032</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2731375534853842</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2309160330413871</v>
+        <v>0.2298434061011543</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3193586277980404</v>
+        <v>0.32143078291814</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>97</v>
@@ -6380,19 +6380,19 @@
         <v>109748</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>91802</v>
+        <v>90773</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>129627</v>
+        <v>129175</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2450827195634983</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2050061605629859</v>
+        <v>0.2027078958045155</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2894744117333065</v>
+        <v>0.2884649692889899</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>205</v>
@@ -6401,19 +6401,19 @@
         <v>227041</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>196911</v>
+        <v>201934</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>253580</v>
+        <v>254068</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2588163758458835</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2244689369320878</v>
+        <v>0.2301957325281764</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2890690847606604</v>
+        <v>0.2896255918181189</v>
       </c>
     </row>
     <row r="32">
@@ -6430,19 +6430,19 @@
         <v>152899</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>131618</v>
+        <v>131490</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>174699</v>
+        <v>173672</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3560528969513373</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3064952872853184</v>
+        <v>0.3061975050132327</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4068168796313827</v>
+        <v>0.4044257849745554</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>165</v>
@@ -6451,19 +6451,19 @@
         <v>181765</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>159316</v>
+        <v>159872</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>203480</v>
+        <v>203312</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4059057025474139</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3557753847419924</v>
+        <v>0.3570169940519856</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.454398359591377</v>
+        <v>0.4540234562664075</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>304</v>
@@ -6472,19 +6472,19 @@
         <v>334664</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>305920</v>
+        <v>308184</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>362922</v>
+        <v>364583</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3815013058336279</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3487342668548064</v>
+        <v>0.3513153705296105</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4137145646938564</v>
+        <v>0.4156078667321396</v>
       </c>
     </row>
     <row r="33">
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7818</v>
+        <v>6146</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005475320635719973</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0220845768804807</v>
+        <v>0.01736072511265373</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5851</v>
+        <v>6769</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002919996431714387</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.008814879532029141</v>
+        <v>0.01019723076099016</v>
       </c>
     </row>
     <row r="35">
@@ -6639,19 +6639,19 @@
         <v>18303</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>11239</v>
+        <v>11162</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>29674</v>
+        <v>29211</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05908275239628683</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03627996983485408</v>
+        <v>0.03603191511972755</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09579024751635203</v>
+        <v>0.09429384262924646</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>15</v>
@@ -6660,19 +6660,19 @@
         <v>17069</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10372</v>
+        <v>10354</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27994</v>
+        <v>27481</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04821875174098174</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0292998598351981</v>
+        <v>0.02924851411316955</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07908025763548329</v>
+        <v>0.07763027024886857</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>32</v>
@@ -6681,19 +6681,19 @@
         <v>35372</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>25391</v>
+        <v>24253</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>51475</v>
+        <v>49072</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05328896509903164</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03825242929922346</v>
+        <v>0.0365381527941781</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07754731210732695</v>
+        <v>0.07392723451495353</v>
       </c>
     </row>
     <row r="36">
@@ -6710,19 +6710,19 @@
         <v>74314</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>59548</v>
+        <v>60210</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>90733</v>
+        <v>90328</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2398880338669416</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1922224111840083</v>
+        <v>0.194359478113289</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2928881399773828</v>
+        <v>0.2915803507749966</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>80</v>
@@ -6731,19 +6731,19 @@
         <v>85547</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>70169</v>
+        <v>70234</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>101650</v>
+        <v>104169</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2416600630667143</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1982198989112417</v>
+        <v>0.1984044101144966</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2871487556735001</v>
+        <v>0.2942672324733824</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>149</v>
@@ -6752,19 +6752,19 @@
         <v>159861</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>138015</v>
+        <v>139872</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>182466</v>
+        <v>185597</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2408330596078039</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2079217265441036</v>
+        <v>0.2107200529851113</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2748890639930723</v>
+        <v>0.2796052605208199</v>
       </c>
     </row>
     <row r="37">
@@ -6781,19 +6781,19 @@
         <v>70826</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>55143</v>
+        <v>55826</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>86388</v>
+        <v>86810</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2286281805519672</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1780037214582506</v>
+        <v>0.1802067891086133</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2788650856656358</v>
+        <v>0.2802242703902486</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>83</v>
@@ -6802,19 +6802,19 @@
         <v>84905</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>70680</v>
+        <v>70241</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>102333</v>
+        <v>101640</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2398474136500502</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1996621314190795</v>
+        <v>0.1984245537928681</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2890784709779814</v>
+        <v>0.2871221427190128</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>148</v>
@@ -6823,19 +6823,19 @@
         <v>155731</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>134458</v>
+        <v>131818</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>179067</v>
+        <v>177400</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2346114138258787</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2025635367602958</v>
+        <v>0.1985869311755179</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2697684194922758</v>
+        <v>0.2672563309811325</v>
       </c>
     </row>
     <row r="38">
@@ -6852,19 +6852,19 @@
         <v>146343</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>128639</v>
+        <v>128771</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>166591</v>
+        <v>162140</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4724010331848044</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4152502797595198</v>
+        <v>0.4156781481843075</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5377608683191342</v>
+        <v>0.5233943011152759</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>164</v>
@@ -6873,19 +6873,19 @@
         <v>164537</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>145914</v>
+        <v>145159</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>182988</v>
+        <v>182966</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4647984509065338</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4121918641699222</v>
+        <v>0.4100582715043991</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5169199247919115</v>
+        <v>0.5168590231135819</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>295</v>
@@ -6894,19 +6894,19 @@
         <v>310880</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>286004</v>
+        <v>283020</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>337573</v>
+        <v>337695</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4683465650355713</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4308704374007049</v>
+        <v>0.4263743581969052</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5085604830309964</v>
+        <v>0.5087444959138918</v>
       </c>
     </row>
     <row r="39">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4506</v>
+        <v>6355</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004265861464311201</v>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01810572306022283</v>
+        <v>0.02553476374583346</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6924</v>
+        <v>5807</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002992085189345508</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01785359746823688</v>
+        <v>0.01497489921848928</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6799</v>
+        <v>7808</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003490017567200666</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0106786774813845</v>
+        <v>0.01226365759644758</v>
       </c>
     </row>
     <row r="41">
@@ -7069,19 +7069,19 @@
         <v>5446</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2149</v>
+        <v>2082</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>12089</v>
+        <v>12207</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02188063378931203</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008635576841869249</v>
+        <v>0.008366047700835539</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04857244137699381</v>
+        <v>0.04904533763465677</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -7090,19 +7090,19 @@
         <v>7572</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3247</v>
+        <v>3237</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>14110</v>
+        <v>15177</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01952651989839343</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.008373909403187947</v>
+        <v>0.008348219815695043</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.036384830547553</v>
+        <v>0.03913693177596431</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>12</v>
@@ -7111,19 +7111,19 @@
         <v>13018</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>6482</v>
+        <v>6488</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>21666</v>
+        <v>22015</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02044676747285742</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01018148030312543</v>
+        <v>0.01019075730992745</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03403019695220002</v>
+        <v>0.03457748366606834</v>
       </c>
     </row>
     <row r="42">
@@ -7140,19 +7140,19 @@
         <v>45347</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>33652</v>
+        <v>33366</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>58954</v>
+        <v>61626</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1822020452266611</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1352123671251375</v>
+        <v>0.1340599939922478</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2368725878983097</v>
+        <v>0.2476083614535386</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>55</v>
@@ -7161,19 +7161,19 @@
         <v>61717</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>48291</v>
+        <v>47921</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>77947</v>
+        <v>77762</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1591478774357887</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1245263736711893</v>
+        <v>0.1235718319086173</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2010010928089346</v>
+        <v>0.2005219303517821</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>95</v>
@@ -7182,19 +7182,19 @@
         <v>107064</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>87395</v>
+        <v>87835</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>127278</v>
+        <v>127380</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1681599911116304</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1372661017054662</v>
+        <v>0.1379581379734049</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1999081351599187</v>
+        <v>0.2000684101099494</v>
       </c>
     </row>
     <row r="43">
@@ -7211,19 +7211,19 @@
         <v>62773</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>47855</v>
+        <v>49111</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>77735</v>
+        <v>78341</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2522173492454902</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.192278344571493</v>
+        <v>0.1973255403637407</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3123315711968384</v>
+        <v>0.3147661452365308</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>85</v>
@@ -7232,19 +7232,19 @@
         <v>94056</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>77928</v>
+        <v>76774</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>112451</v>
+        <v>112274</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2425398131035359</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2009521429299829</v>
+        <v>0.1979753130700068</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2899741860139124</v>
+        <v>0.2895170036287674</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>140</v>
@@ -7253,19 +7253,19 @@
         <v>156829</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>133847</v>
+        <v>134411</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>180760</v>
+        <v>179926</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.246322862511543</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2102258822004426</v>
+        <v>0.2111116580776025</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2839097392982239</v>
+        <v>0.2825990843946393</v>
       </c>
     </row>
     <row r="44">
@@ -7282,19 +7282,19 @@
         <v>134257</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>117549</v>
+        <v>117060</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>149532</v>
+        <v>150312</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5394341102742255</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4723036192839484</v>
+        <v>0.4703390088946255</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6008066114399968</v>
+        <v>0.6039399136569699</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>201</v>
@@ -7303,19 +7303,19 @@
         <v>223290</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>203421</v>
+        <v>204050</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>242805</v>
+        <v>244478</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5757937043729364</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5245577564662807</v>
+        <v>0.5261776102722536</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6261151493377924</v>
+        <v>0.6304288673441262</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>321</v>
@@ -7324,19 +7324,19 @@
         <v>357548</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>330172</v>
+        <v>331810</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>384037</v>
+        <v>386047</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5615803613367685</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5185824675112238</v>
+        <v>0.5211548556363959</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6031852096166926</v>
+        <v>0.6063423032052302</v>
       </c>
     </row>
     <row r="45">
@@ -7428,19 +7428,19 @@
         <v>59168</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>44377</v>
+        <v>44471</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>74957</v>
+        <v>79117</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01728115843995079</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01296119301040158</v>
+        <v>0.01298859106119925</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02189269242977118</v>
+        <v>0.02310761473151063</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>49</v>
@@ -7449,19 +7449,19 @@
         <v>50871</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>37895</v>
+        <v>37216</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>65675</v>
+        <v>64961</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01432236681212747</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01066896831750081</v>
+        <v>0.01047783278194665</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01849023529038519</v>
+        <v>0.0182893168794003</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>104</v>
@@ -7470,19 +7470,19 @@
         <v>110039</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>91786</v>
+        <v>92633</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>134390</v>
+        <v>132664</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01577461025745332</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01315785377903081</v>
+        <v>0.01327934088007964</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01926534356637126</v>
+        <v>0.01901791839220411</v>
       </c>
     </row>
     <row r="47">
@@ -7499,19 +7499,19 @@
         <v>356939</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>319862</v>
+        <v>324519</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>397425</v>
+        <v>394345</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1042507331275394</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.09342168739003741</v>
+        <v>0.09478195444007786</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1160756084975566</v>
+        <v>0.1151758842070489</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>288</v>
@@ -7520,19 +7520,19 @@
         <v>309375</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>278830</v>
+        <v>277974</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>345151</v>
+        <v>347464</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08710179654012423</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07850222629443165</v>
+        <v>0.07826119981957554</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0971741082348901</v>
+        <v>0.09782546919965306</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>627</v>
@@ -7541,19 +7541,19 @@
         <v>666314</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>616238</v>
+        <v>621682</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>720858</v>
+        <v>719385</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.09551889172154585</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.08834034451507991</v>
+        <v>0.08912068756807717</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1033380933850468</v>
+        <v>0.1031268985511782</v>
       </c>
     </row>
     <row r="48">
@@ -7570,19 +7570,19 @@
         <v>1293259</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1233510</v>
+        <v>1235072</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1354198</v>
+        <v>1352927</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3777207816017501</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3602698559317137</v>
+        <v>0.360726122600744</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3955191613233451</v>
+        <v>0.3951479306949963</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1128</v>
@@ -7591,19 +7591,19 @@
         <v>1214896</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1156574</v>
+        <v>1154199</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1274468</v>
+        <v>1274886</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3420430465548482</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3256230030985838</v>
+        <v>0.3249543658665077</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3588152116550628</v>
+        <v>0.3589328202024042</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2362</v>
@@ -7612,19 +7612,19 @@
         <v>2508154</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>2432295</v>
+        <v>2427968</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2595380</v>
+        <v>2595168</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3595545050768708</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3486796800649412</v>
+        <v>0.3480593869093448</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3720586417089939</v>
+        <v>0.37202821488497</v>
       </c>
     </row>
     <row r="49">
@@ -7641,19 +7641,19 @@
         <v>722377</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>675392</v>
+        <v>675655</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>771165</v>
+        <v>775198</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2109838852854016</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1972610865534791</v>
+        <v>0.1973379590661228</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2252333446406928</v>
+        <v>0.2264112946537177</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>743</v>
@@ -7662,19 +7662,19 @@
         <v>800850</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>745755</v>
+        <v>748335</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>846892</v>
+        <v>850516</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2254722238555406</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2099606088609185</v>
+        <v>0.2106871524008802</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2384348814334864</v>
+        <v>0.2394552594112742</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1409</v>
@@ -7683,19 +7683,19 @@
         <v>1523227</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1452283</v>
+        <v>1451671</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1600767</v>
+        <v>1592460</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2183610117903554</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2081909341292402</v>
+        <v>0.2081031484478512</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2294766347418482</v>
+        <v>0.2282858140640684</v>
       </c>
     </row>
     <row r="50">
@@ -7712,19 +7712,19 @@
         <v>992106</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>939393</v>
+        <v>937414</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1052313</v>
+        <v>1048698</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2897634415453582</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2743674417817206</v>
+        <v>0.2737895468089789</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3073479225019144</v>
+        <v>0.3062920047145535</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1084</v>
@@ -7733,19 +7733,19 @@
         <v>1175887</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1121921</v>
+        <v>1113661</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1237371</v>
+        <v>1234221</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3310605662373596</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3158669213877169</v>
+        <v>0.3135414334082601</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3483708841811725</v>
+        <v>0.3474838297131388</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1996</v>
@@ -7754,19 +7754,19 @@
         <v>2167993</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2079528</v>
+        <v>2084728</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2247515</v>
+        <v>2246182</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3107909811537747</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2981090982515354</v>
+        <v>0.2988545190095565</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3221906870692582</v>
+        <v>0.3219996760947431</v>
       </c>
     </row>
     <row r="51">
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10647</v>
+        <v>9868</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006639416784864779</v>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02551345073243319</v>
+        <v>0.02364851508844529</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -8122,19 +8122,19 @@
         <v>6862</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2992</v>
+        <v>2811</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13590</v>
+        <v>13588</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0173395981129716</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007560866963637484</v>
+        <v>0.007103727820022808</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03433913644315829</v>
+        <v>0.03433357516103738</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -8143,19 +8143,19 @@
         <v>9633</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3944</v>
+        <v>4071</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17614</v>
+        <v>17735</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01184775680936126</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004850987797742959</v>
+        <v>0.005006563890994045</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02166419886619107</v>
+        <v>0.02181324522514526</v>
       </c>
     </row>
     <row r="5">
@@ -8172,19 +8172,19 @@
         <v>79942</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64118</v>
+        <v>63701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>97092</v>
+        <v>97217</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1915716270769066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1536518789968925</v>
+        <v>0.1526522816853977</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2326697239649018</v>
+        <v>0.2329691684245821</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -8193,19 +8193,19 @@
         <v>77608</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64145</v>
+        <v>63732</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95665</v>
+        <v>93375</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1961001113413079</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1620820577551427</v>
+        <v>0.1610392850249003</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.241727136897207</v>
+        <v>0.235941811922565</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>155</v>
@@ -8214,19 +8214,19 @@
         <v>157550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>137735</v>
+        <v>134969</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>179856</v>
+        <v>179186</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1937758781191417</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1694047023138353</v>
+        <v>0.1660031364454312</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2212104150998127</v>
+        <v>0.2203866353119756</v>
       </c>
     </row>
     <row r="6">
@@ -8243,19 +8243,19 @@
         <v>186203</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>166269</v>
+        <v>165215</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>207939</v>
+        <v>206594</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4462120580518036</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3984438560895273</v>
+        <v>0.3959170697560676</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4983006664539591</v>
+        <v>0.4950773779995179</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>166</v>
@@ -8264,19 +8264,19 @@
         <v>162258</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>143783</v>
+        <v>144173</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>180196</v>
+        <v>182508</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.409995644706582</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3633128701803596</v>
+        <v>0.3642989385973137</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4553219774911059</v>
+        <v>0.4611631855096813</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>338</v>
@@ -8285,19 +8285,19 @@
         <v>348461</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>320840</v>
+        <v>321477</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>377956</v>
+        <v>377448</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4285836282723804</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3946115062080533</v>
+        <v>0.3953952642846417</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4648608688552156</v>
+        <v>0.4642362418570964</v>
       </c>
     </row>
     <row r="7">
@@ -8314,19 +8314,19 @@
         <v>100977</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82641</v>
+        <v>83701</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118122</v>
+        <v>119544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2419787547298847</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1980381408502368</v>
+        <v>0.2005785664502879</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2830654276258615</v>
+        <v>0.2864713830560396</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -8335,19 +8335,19 @@
         <v>108483</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91111</v>
+        <v>90110</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>125649</v>
+        <v>124807</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2741169878535362</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2302194840954196</v>
+        <v>0.2276920897038371</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.317492236679773</v>
+        <v>0.3153648436165129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>208</v>
@@ -8356,19 +8356,19 @@
         <v>209460</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>184583</v>
+        <v>184943</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>235724</v>
+        <v>234311</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2576221200862107</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2270246022297912</v>
+        <v>0.2274682125373319</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.289925472011174</v>
+        <v>0.2881871341051147</v>
       </c>
     </row>
     <row r="8">
@@ -8385,19 +8385,19 @@
         <v>47404</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34443</v>
+        <v>35098</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59684</v>
+        <v>61283</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1135981433565402</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08253753250548822</v>
+        <v>0.08410750417683978</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1430260805772479</v>
+        <v>0.1468566004927523</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -8406,19 +8406,19 @@
         <v>40544</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>29708</v>
+        <v>29570</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53689</v>
+        <v>54067</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1024476579856024</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0750666542944879</v>
+        <v>0.07471709360394006</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1356620418144178</v>
+        <v>0.1366183556371983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>85</v>
@@ -8427,19 +8427,19 @@
         <v>87948</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>71775</v>
+        <v>70379</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>108424</v>
+        <v>106251</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1081706167129059</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08827805879296768</v>
+        <v>0.08656200470457412</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1333547239325182</v>
+        <v>0.1306813782859713</v>
       </c>
     </row>
     <row r="9">
@@ -8531,19 +8531,19 @@
         <v>11409</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5225</v>
+        <v>6169</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19076</v>
+        <v>20443</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0193911452993991</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008880395922610348</v>
+        <v>0.01048556827538664</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0324231297814609</v>
+        <v>0.03474686052434966</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -8552,19 +8552,19 @@
         <v>8766</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4720</v>
+        <v>3979</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15806</v>
+        <v>16151</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01555538717443992</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008375876582096172</v>
+        <v>0.007060364565943353</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02804762016424524</v>
+        <v>0.02865960219195031</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -8573,19 +8573,19 @@
         <v>20175</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12097</v>
+        <v>12935</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29756</v>
+        <v>30458</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01751457223059058</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01050155886945191</v>
+        <v>0.01122973023473225</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02583205805701085</v>
+        <v>0.02644119485601373</v>
       </c>
     </row>
     <row r="11">
@@ -8602,19 +8602,19 @@
         <v>117954</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99042</v>
+        <v>99350</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138508</v>
+        <v>137650</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2004823479221089</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1683385263638852</v>
+        <v>0.1688611154695761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2354159044257866</v>
+        <v>0.233958101706293</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>94</v>
@@ -8623,19 +8623,19 @@
         <v>93033</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>77132</v>
+        <v>76150</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>112815</v>
+        <v>110399</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1650856800009231</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.136869283811777</v>
+        <v>0.1351274840800041</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2001885177511327</v>
+        <v>0.1959004903909197</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>206</v>
@@ -8644,19 +8644,19 @@
         <v>210987</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>184667</v>
+        <v>186660</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>238613</v>
+        <v>238359</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1831651888149604</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1603160627495794</v>
+        <v>0.1620454790562907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2071477015756076</v>
+        <v>0.20692759024554</v>
       </c>
     </row>
     <row r="12">
@@ -8673,19 +8673,19 @@
         <v>240380</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>217610</v>
+        <v>216813</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>267148</v>
+        <v>265513</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4085634960826733</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3698632170865428</v>
+        <v>0.3685078940027091</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.454059999946302</v>
+        <v>0.4512812123809157</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>237</v>
@@ -8694,19 +8694,19 @@
         <v>230088</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>206867</v>
+        <v>208284</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>251174</v>
+        <v>253044</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.408287118951184</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3670816458834339</v>
+        <v>0.3695966228732986</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4457050010512841</v>
+        <v>0.4490226460189148</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>467</v>
@@ -8715,19 +8715,19 @@
         <v>470467</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>436659</v>
+        <v>438834</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>501887</v>
+        <v>502413</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4084282837296283</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3790787816423654</v>
+        <v>0.3809667808366705</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4357053487145054</v>
+        <v>0.436161759942451</v>
       </c>
     </row>
     <row r="13">
@@ -8744,19 +8744,19 @@
         <v>166381</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>145052</v>
+        <v>145604</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>189988</v>
+        <v>187175</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2827919052445919</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2465385383371149</v>
+        <v>0.2474772395481035</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3229146961538629</v>
+        <v>0.3181339272396541</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>162</v>
@@ -8765,19 +8765,19 @@
         <v>156105</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>135016</v>
+        <v>135710</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>174806</v>
+        <v>177627</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2770053936894119</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2395844177720673</v>
+        <v>0.2408148888506026</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3101907465675154</v>
+        <v>0.3151959247657644</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>324</v>
@@ -8786,19 +8786,19 @@
         <v>322486</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>291783</v>
+        <v>293599</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>351809</v>
+        <v>353839</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2799609624705566</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.253307077560663</v>
+        <v>0.2548830418402922</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3054176517738048</v>
+        <v>0.3071792380468178</v>
       </c>
     </row>
     <row r="14">
@@ -8815,19 +8815,19 @@
         <v>52229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38727</v>
+        <v>39104</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68079</v>
+        <v>66967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08877110545122679</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0658219190234226</v>
+        <v>0.06646340344299402</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1157107859967936</v>
+        <v>0.1138211053089534</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -8836,19 +8836,19 @@
         <v>75552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59633</v>
+        <v>60097</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92799</v>
+        <v>92545</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1340664201840411</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.105818214154388</v>
+        <v>0.1066405108264039</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1646708440906723</v>
+        <v>0.164220363844194</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>127</v>
@@ -8857,19 +8857,19 @@
         <v>127781</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>107546</v>
+        <v>108332</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>151430</v>
+        <v>151747</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1109309927542641</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09336411019722937</v>
+        <v>0.09404636896321301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1314618453558097</v>
+        <v>0.1317369952065176</v>
       </c>
     </row>
     <row r="15">
@@ -8961,19 +8961,19 @@
         <v>11118</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5642</v>
+        <v>5454</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20216</v>
+        <v>20108</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01663977556974226</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008444762030298574</v>
+        <v>0.008163306715289887</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03025827979704312</v>
+        <v>0.03009529466533329</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -8982,19 +8982,19 @@
         <v>9558</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4745</v>
+        <v>4833</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17440</v>
+        <v>16397</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01448479405800386</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007191021338953508</v>
+        <v>0.007323843159257799</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.026430316169432</v>
+        <v>0.02485038690856087</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -9003,19 +9003,19 @@
         <v>20675</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12717</v>
+        <v>12701</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31209</v>
+        <v>31772</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01556901012601993</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009576042086325615</v>
+        <v>0.009564213049666086</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02350151785839418</v>
+        <v>0.02392505181111797</v>
       </c>
     </row>
     <row r="17">
@@ -9032,19 +9032,19 @@
         <v>103855</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>85534</v>
+        <v>84904</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>124314</v>
+        <v>124133</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1554416467250948</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1280197159303704</v>
+        <v>0.1270768554924677</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1860622763420006</v>
+        <v>0.1857910957231019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>80</v>
@@ -9053,19 +9053,19 @@
         <v>81560</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>66717</v>
+        <v>66921</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>101991</v>
+        <v>98597</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1236058598958681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1011100506472734</v>
+        <v>0.1014189855694608</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1545690548613461</v>
+        <v>0.1494255502205253</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>177</v>
@@ -9074,19 +9074,19 @@
         <v>185416</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>161115</v>
+        <v>161595</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>211118</v>
+        <v>213824</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1396231071112921</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1213237816896537</v>
+        <v>0.1216858254089912</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1589777832939925</v>
+        <v>0.1610155595847115</v>
       </c>
     </row>
     <row r="18">
@@ -9103,19 +9103,19 @@
         <v>254835</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>227263</v>
+        <v>229671</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>280841</v>
+        <v>278472</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3814149348599757</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3401477415197905</v>
+        <v>0.3437521390152479</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4203386455993506</v>
+        <v>0.4167930425445651</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>268</v>
@@ -9124,19 +9124,19 @@
         <v>263918</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>240925</v>
+        <v>241936</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>291900</v>
+        <v>288900</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3999708916830857</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3651254854067114</v>
+        <v>0.3666575760453379</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4423790190145265</v>
+        <v>0.4378316800993501</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>510</v>
@@ -9145,19 +9145,19 @@
         <v>518752</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>482234</v>
+        <v>482132</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>555489</v>
+        <v>555475</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.390635003446718</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3631355258177407</v>
+        <v>0.3630586309975287</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4182984361788826</v>
+        <v>0.4182881131180949</v>
       </c>
     </row>
     <row r="19">
@@ -9174,19 +9174,19 @@
         <v>212341</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>189173</v>
+        <v>188352</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>236774</v>
+        <v>237838</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3178139693055875</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2831383286054348</v>
+        <v>0.2819085185790932</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3543822131076742</v>
+        <v>0.3559747389148449</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>212</v>
@@ -9195,19 +9195,19 @@
         <v>207441</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>183376</v>
+        <v>185183</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>229754</v>
+        <v>232042</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3143798285490223</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2779093968878838</v>
+        <v>0.2806482318623351</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3481960377821448</v>
+        <v>0.3516632794221723</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>419</v>
@@ -9216,19 +9216,19 @@
         <v>419782</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>386140</v>
+        <v>383436</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>454960</v>
+        <v>452963</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3161076162668358</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2907743293740943</v>
+        <v>0.2887379426404049</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.342597325420645</v>
+        <v>0.341093705628522</v>
       </c>
     </row>
     <row r="20">
@@ -9245,19 +9245,19 @@
         <v>85982</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69505</v>
+        <v>69676</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>105396</v>
+        <v>109119</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1286896735395998</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1040293975852156</v>
+        <v>0.1042848475139205</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1577473691788809</v>
+        <v>0.1633201990999883</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>94</v>
@@ -9266,19 +9266,19 @@
         <v>97365</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>80443</v>
+        <v>81480</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>118358</v>
+        <v>116935</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.14755862581402</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1219127861049857</v>
+        <v>0.1234839212899062</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.179373031082999</v>
+        <v>0.1772164888054637</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>175</v>
@@ -9287,19 +9287,19 @@
         <v>183347</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>156258</v>
+        <v>160340</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>207570</v>
+        <v>208665</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1380652630491341</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1176666270283352</v>
+        <v>0.1207405218875793</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1563060283225307</v>
+        <v>0.1571303745751236</v>
       </c>
     </row>
     <row r="21">
@@ -9391,19 +9391,19 @@
         <v>7165</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3049</v>
+        <v>3037</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14341</v>
+        <v>14224</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0111101379189176</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004727872047709843</v>
+        <v>0.004709460675081131</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0222374823908663</v>
+        <v>0.02205460623144176</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -9412,19 +9412,19 @@
         <v>10593</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4482</v>
+        <v>5372</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19112</v>
+        <v>18977</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01634869807543097</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006917233680714315</v>
+        <v>0.008289899111276424</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0294947236065262</v>
+        <v>0.02928639319972586</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -9433,19 +9433,19 @@
         <v>17759</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10149</v>
+        <v>10630</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27664</v>
+        <v>28644</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0137355799862641</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007849596793081528</v>
+        <v>0.008221688050515591</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0213973695732523</v>
+        <v>0.02215487049674686</v>
       </c>
     </row>
     <row r="23">
@@ -9462,19 +9462,19 @@
         <v>91761</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>73764</v>
+        <v>73723</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>112881</v>
+        <v>112012</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1422817093271544</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1143766565755564</v>
+        <v>0.1143131970324167</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1750301096500667</v>
+        <v>0.1736825268045662</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>64</v>
@@ -9483,19 +9483,19 @@
         <v>69429</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>53821</v>
+        <v>54942</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>87343</v>
+        <v>87119</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1071488720723148</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08306103646681899</v>
+        <v>0.08479116722276923</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1347959960879689</v>
+        <v>0.1344508621617396</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>142</v>
@@ -9504,19 +9504,19 @@
         <v>161189</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>137236</v>
+        <v>138666</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>185412</v>
+        <v>186627</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1246739648099117</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1061468630793351</v>
+        <v>0.1072531891382248</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1434091627107378</v>
+        <v>0.1443488591207313</v>
       </c>
     </row>
     <row r="24">
@@ -9533,19 +9533,19 @@
         <v>251269</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>226054</v>
+        <v>226342</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>277653</v>
+        <v>277570</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3896111560657869</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3505125315044363</v>
+        <v>0.3509592600909273</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4305218423701905</v>
+        <v>0.4303924088019899</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>227</v>
@@ -9554,19 +9554,19 @@
         <v>245115</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>221472</v>
+        <v>221050</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>270526</v>
+        <v>270010</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3782840132171622</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3417963796254462</v>
+        <v>0.3411442222121604</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4175006353644727</v>
+        <v>0.4167052900070355</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>454</v>
@@ -9575,19 +9575,19 @@
         <v>496384</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>462620</v>
+        <v>462858</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>530230</v>
+        <v>537709</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3839342608027542</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3578186992639689</v>
+        <v>0.3580028497472693</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4101125161215428</v>
+        <v>0.4158977374550837</v>
       </c>
     </row>
     <row r="25">
@@ -9604,19 +9604,19 @@
         <v>187718</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>164280</v>
+        <v>165598</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>213784</v>
+        <v>210430</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2910698657251785</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2547277027126224</v>
+        <v>0.2567723777932222</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3314878364047956</v>
+        <v>0.3262876024011983</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>190</v>
@@ -9625,19 +9625,19 @@
         <v>203625</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>180001</v>
+        <v>181926</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>228794</v>
+        <v>231281</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3142536970469456</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2777950051152795</v>
+        <v>0.280764439529955</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3530956090520574</v>
+        <v>0.356933750720081</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>363</v>
@@ -9646,19 +9646,19 @@
         <v>391343</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>357431</v>
+        <v>357455</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>424327</v>
+        <v>426778</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3026890519549582</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2764593390167258</v>
+        <v>0.2764777430378556</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3282009735441521</v>
+        <v>0.3300967384991852</v>
       </c>
     </row>
     <row r="26">
@@ -9675,19 +9675,19 @@
         <v>107010</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>87512</v>
+        <v>89496</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>127326</v>
+        <v>128330</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1659271309629627</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1356940584076176</v>
+        <v>0.1387705790896631</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.197428407900254</v>
+        <v>0.1989845119882205</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>111</v>
@@ -9696,19 +9696,19 @@
         <v>119203</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>99072</v>
+        <v>99216</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>140212</v>
+        <v>140580</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1839647195881464</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1528965470447841</v>
+        <v>0.1531191393739733</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2163878612718609</v>
+        <v>0.2169560317392316</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>207</v>
@@ -9717,19 +9717,19 @@
         <v>226213</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>199826</v>
+        <v>198666</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>255509</v>
+        <v>253715</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1749671424461118</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1545582165093628</v>
+        <v>0.1536605102295808</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1976263228350279</v>
+        <v>0.1962391698874801</v>
       </c>
     </row>
     <row r="27">
@@ -9834,19 +9834,19 @@
         <v>3465</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9199</v>
+        <v>9372</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006990544745625738</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002211495002047095</v>
+        <v>0.002216244945445028</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01855671007286026</v>
+        <v>0.01890620299548407</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -9855,19 +9855,19 @@
         <v>3465</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9176</v>
+        <v>10395</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00356266114226064</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00113283142770069</v>
+        <v>0.001134276475048874</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.009434281643608634</v>
+        <v>0.01068668213059097</v>
       </c>
     </row>
     <row r="29">
@@ -9884,19 +9884,19 @@
         <v>45283</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>32990</v>
+        <v>32956</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>59579</v>
+        <v>60809</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09494283785944214</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06916819929596309</v>
+        <v>0.06909755455796729</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1249164376144382</v>
+        <v>0.1274936395346975</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -9905,19 +9905,19 @@
         <v>35642</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25486</v>
+        <v>24230</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>48970</v>
+        <v>48468</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07190076233751021</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05141300090807949</v>
+        <v>0.04887909781675327</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09878849495848147</v>
+        <v>0.09777608722428319</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>70</v>
@@ -9926,19 +9926,19 @@
         <v>80925</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>64101</v>
+        <v>63928</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>101257</v>
+        <v>100295</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08319967476040188</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06590253574401567</v>
+        <v>0.06572524840747243</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.104103090348778</v>
+        <v>0.1031141689385111</v>
       </c>
     </row>
     <row r="30">
@@ -9955,19 +9955,19 @@
         <v>139599</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>118698</v>
+        <v>119457</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>161709</v>
+        <v>160476</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2926895602209389</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2488676652515215</v>
+        <v>0.2504588535704252</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3390458596278272</v>
+        <v>0.3364596044700944</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>120</v>
@@ -9976,19 +9976,19 @@
         <v>136751</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>115532</v>
+        <v>115150</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>158125</v>
+        <v>156680</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2758698703426788</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2330641835815082</v>
+        <v>0.2322945069295367</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3189881640122</v>
+        <v>0.3160728847671864</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>244</v>
@@ -9997,19 +9997,19 @@
         <v>276350</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>248681</v>
+        <v>247740</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>306891</v>
+        <v>304186</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2841175736684391</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.255670322074958</v>
+        <v>0.2547025719437659</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.315516858815072</v>
+        <v>0.3127353968657404</v>
       </c>
     </row>
     <row r="31">
@@ -10026,19 +10026,19 @@
         <v>161781</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>141057</v>
+        <v>140651</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>185897</v>
+        <v>182287</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3391971538698144</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2957459973382032</v>
+        <v>0.2948937076884657</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3897592633932618</v>
+        <v>0.3821905984392496</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>142</v>
@@ -10047,19 +10047,19 @@
         <v>163072</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>143807</v>
+        <v>142523</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>187768</v>
+        <v>186924</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3289684770234469</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2901038809302652</v>
+        <v>0.2875136377091057</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3787892131391267</v>
+        <v>0.3770862763527182</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>288</v>
@@ -10068,19 +10068,19 @@
         <v>324854</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>295189</v>
+        <v>294907</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>353776</v>
+        <v>355009</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3339842111216692</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3034856093352152</v>
+        <v>0.3031952546760546</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3637193220752321</v>
+        <v>0.3649871848025707</v>
       </c>
     </row>
     <row r="32">
@@ -10097,19 +10097,19 @@
         <v>130290</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>110670</v>
+        <v>110336</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>153060</v>
+        <v>151474</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2731704480498046</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2320355379462153</v>
+        <v>0.2313339182588084</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3209123945354788</v>
+        <v>0.317586953312759</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>136</v>
@@ -10118,19 +10118,19 @@
         <v>156777</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>133946</v>
+        <v>136465</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>178351</v>
+        <v>180545</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3162703455507384</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2702114309047116</v>
+        <v>0.2752937573337143</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3597913707383175</v>
+        <v>0.364218167072646</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>250</v>
@@ -10139,19 +10139,19 @@
         <v>287067</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>256782</v>
+        <v>259256</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>318607</v>
+        <v>320053</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2951358793072292</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2639995041518562</v>
+        <v>0.2665430789644074</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3275613750649606</v>
+        <v>0.3290488341564901</v>
       </c>
     </row>
     <row r="33">
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6105</v>
+        <v>5413</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003218044434868097</v>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01825928651151788</v>
+        <v>0.01619127600478035</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -10264,19 +10264,19 @@
         <v>3025</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9163</v>
+        <v>8829</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.008006693981696343</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002443329971352535</v>
+        <v>0.002467301722461151</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02425500750202779</v>
+        <v>0.02337136205251426</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -10288,16 +10288,16 @@
         <v>1066</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10330</v>
+        <v>10172</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005758404161397051</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001497020997110424</v>
+        <v>0.001496810905572549</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01450692524760786</v>
+        <v>0.01428469785318012</v>
       </c>
     </row>
     <row r="35">
@@ -10314,19 +10314,19 @@
         <v>21357</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12906</v>
+        <v>12921</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>31437</v>
+        <v>31150</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06387975666358617</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03860305980744653</v>
+        <v>0.03864768839356911</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09403125181721887</v>
+        <v>0.09317137782013718</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>21</v>
@@ -10335,19 +10335,19 @@
         <v>21919</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>14627</v>
+        <v>13540</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>32858</v>
+        <v>32396</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05802418900993332</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03871971134706877</v>
+        <v>0.03584211844853944</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08698005341145081</v>
+        <v>0.0857575723756946</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>42</v>
@@ -10356,19 +10356,19 @@
         <v>43276</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>31899</v>
+        <v>32204</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>57618</v>
+        <v>59136</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06077340108299081</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04479642453397108</v>
+        <v>0.04522427645344833</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08091314011407882</v>
+        <v>0.08304513757463601</v>
       </c>
     </row>
     <row r="36">
@@ -10385,19 +10385,19 @@
         <v>94615</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>79891</v>
+        <v>78019</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>111035</v>
+        <v>111542</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.282997723859489</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2389599723585939</v>
+        <v>0.2333596021366962</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3321130458748664</v>
+        <v>0.3336270160005996</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>74</v>
@@ -10406,19 +10406,19 @@
         <v>82152</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>66133</v>
+        <v>65906</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>98242</v>
+        <v>98765</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2174715458541993</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.175066426441178</v>
+        <v>0.1744631858423769</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2600638796497809</v>
+        <v>0.2614483895622879</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>165</v>
@@ -10427,19 +10427,19 @@
         <v>176767</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>152937</v>
+        <v>155121</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>199055</v>
+        <v>201129</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2482363444747186</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2147711224121313</v>
+        <v>0.2178385814452075</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2795359678445142</v>
+        <v>0.2824485233866527</v>
       </c>
     </row>
     <row r="37">
@@ -10456,19 +10456,19 @@
         <v>112638</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>95691</v>
+        <v>94885</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>129792</v>
+        <v>129943</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3369061991770574</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2862158282503711</v>
+        <v>0.2838067672982753</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3882158718793324</v>
+        <v>0.3886658095256583</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>127</v>
@@ -10477,19 +10477,19 @@
         <v>134006</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>115552</v>
+        <v>117186</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>153305</v>
+        <v>153445</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3547372905381135</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3058849697613699</v>
+        <v>0.310211455338643</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4058251331612723</v>
+        <v>0.4061946184343128</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>238</v>
@@ -10498,19 +10498,19 @@
         <v>246644</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>222007</v>
+        <v>222248</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>271447</v>
+        <v>272628</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3463655229239138</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3117674581170617</v>
+        <v>0.3121061907441316</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3811960850599189</v>
+        <v>0.3828557243624109</v>
       </c>
     </row>
     <row r="38">
@@ -10527,19 +10527,19 @@
         <v>104645</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>87596</v>
+        <v>88975</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>120947</v>
+        <v>123678</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3129982758649993</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2620050200454427</v>
+        <v>0.266130725725184</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3617587008077596</v>
+        <v>0.3699287928432301</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>129</v>
@@ -10548,19 +10548,19 @@
         <v>136659</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>118121</v>
+        <v>118278</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>155751</v>
+        <v>157358</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3617602806160576</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3126851938720057</v>
+        <v>0.3131024593755682</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.412300295144221</v>
+        <v>0.4165527713910737</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>230</v>
@@ -10569,19 +10569,19 @@
         <v>241304</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>216589</v>
+        <v>216827</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>268494</v>
+        <v>266677</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3388663273569798</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3041584508237258</v>
+        <v>0.3044928308579017</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3770491630228198</v>
+        <v>0.3744976621201753</v>
       </c>
     </row>
     <row r="39">
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4512</v>
+        <v>3986</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.00307970355626836</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01755529803954538</v>
+        <v>0.0155117369338859</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12046</v>
+        <v>13604</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.008989416803926608</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03019751990653979</v>
+        <v>0.03410487098604636</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -10715,19 +10715,19 @@
         <v>4377</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>14048</v>
+        <v>12556</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.006673829182503463</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00121042024025994</v>
+        <v>0.001209007879730947</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02141802945258756</v>
+        <v>0.01914300199395887</v>
       </c>
     </row>
     <row r="41">
@@ -10744,19 +10744,19 @@
         <v>17563</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11034</v>
+        <v>10928</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>25874</v>
+        <v>25651</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06833936709452305</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0429353151295798</v>
+        <v>0.04252365753938851</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1006796483329965</v>
+        <v>0.0998093145153648</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>10</v>
@@ -10765,19 +10765,19 @@
         <v>13098</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>6447</v>
+        <v>6550</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>22505</v>
+        <v>23769</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03283487237846713</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01616274382621431</v>
+        <v>0.01641966984780249</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05641747922555881</v>
+        <v>0.05958645946538247</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>31</v>
@@ -10786,19 +10786,19 @@
         <v>30661</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>20802</v>
+        <v>21196</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>43845</v>
+        <v>43124</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04674650650080973</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0317150242398337</v>
+        <v>0.03231543140161382</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06684714272963337</v>
+        <v>0.06574825181323621</v>
       </c>
     </row>
     <row r="42">
@@ -10815,19 +10815,19 @@
         <v>43098</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>32929</v>
+        <v>32997</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>54905</v>
+        <v>54611</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1676993209427705</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1281304450716473</v>
+        <v>0.1283923954415769</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2136408024522587</v>
+        <v>0.2124938912874249</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>36</v>
@@ -10836,19 +10836,19 @@
         <v>47419</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>34371</v>
+        <v>33867</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>63774</v>
+        <v>63317</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1188739683210991</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08616530886417022</v>
+        <v>0.08490051152006546</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1598748883304109</v>
+        <v>0.1587307445383283</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>86</v>
@@ -10857,19 +10857,19 @@
         <v>90517</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>73304</v>
+        <v>72023</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>110445</v>
+        <v>110787</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1380050796634578</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1117621586539685</v>
+        <v>0.109808775192499</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1683874084886431</v>
+        <v>0.1689091202412123</v>
       </c>
     </row>
     <row r="43">
@@ -10886,19 +10886,19 @@
         <v>95290</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>83111</v>
+        <v>80087</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>109928</v>
+        <v>107768</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3707814287804055</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3233930918943004</v>
+        <v>0.3116260225656357</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4277392536827413</v>
+        <v>0.4193331377954361</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>99</v>
@@ -10907,19 +10907,19 @@
         <v>134621</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>112171</v>
+        <v>113634</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>155679</v>
+        <v>155238</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3374833190235317</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2812029912193669</v>
+        <v>0.2848697594206984</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.390271452941564</v>
+        <v>0.3891661682103554</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>212</v>
@@ -10928,19 +10928,19 @@
         <v>229912</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>204122</v>
+        <v>203042</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>257494</v>
+        <v>257079</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3505304310471751</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3112108262936744</v>
+        <v>0.3095648937841644</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3925842267017247</v>
+        <v>0.3919509112927307</v>
       </c>
     </row>
     <row r="44">
@@ -10957,19 +10957,19 @@
         <v>100255</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>85543</v>
+        <v>86582</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>114219</v>
+        <v>114886</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3901001796260326</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3328547274499868</v>
+        <v>0.3368972496028773</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4444372140726374</v>
+        <v>0.4470326504052458</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>153</v>
@@ -10978,19 +10978,19 @@
         <v>200174</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>179029</v>
+        <v>177289</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>224813</v>
+        <v>222434</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5018184234729755</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4488084166479634</v>
+        <v>0.4444462334809873</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.563584680933482</v>
+        <v>0.5576202591890163</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>270</v>
@@ -10999,19 +10999,19 @@
         <v>300429</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>273286</v>
+        <v>274818</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>327557</v>
+        <v>329701</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4580441536060539</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4166600856531494</v>
+        <v>0.4189959547847619</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4994031935532102</v>
+        <v>0.5026734224085773</v>
       </c>
     </row>
     <row r="45">
@@ -11103,19 +11103,19 @@
         <v>34330</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>23054</v>
+        <v>24103</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>47552</v>
+        <v>47436</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01013571845558139</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.006806780103807277</v>
+        <v>0.007116446446028751</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01403966143253429</v>
+        <v>0.01400533086858497</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>43</v>
@@ -11124,19 +11124,19 @@
         <v>45855</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>33229</v>
+        <v>33307</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>59849</v>
+        <v>60692</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0129553697511933</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.009387979780402556</v>
+        <v>0.009410106007018136</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01690887449108361</v>
+        <v>0.01714727251338088</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>75</v>
@@ -11145,19 +11145,19 @@
         <v>80185</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>63500</v>
+        <v>64006</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>99997</v>
+        <v>101133</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01157658164301433</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.009167760895637197</v>
+        <v>0.009240739822002506</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01443701952811992</v>
+        <v>0.0146009473001857</v>
       </c>
     </row>
     <row r="47">
@@ -11174,19 +11174,19 @@
         <v>477716</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>437520</v>
+        <v>435796</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>524206</v>
+        <v>521111</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1410446012491911</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.129176863074051</v>
+        <v>0.1286678042377939</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1547707679416</v>
+        <v>0.1538568758919696</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>380</v>
@@ -11195,19 +11195,19 @@
         <v>392288</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>355358</v>
+        <v>359270</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>433248</v>
+        <v>430254</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1108324572410888</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1003986466527524</v>
+        <v>0.1015038412015932</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1224045298240671</v>
+        <v>0.1215587512607695</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>823</v>
@@ -11216,19 +11216,19 @@
         <v>870005</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>818300</v>
+        <v>811489</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>923960</v>
+        <v>918118</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1256059666270861</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1181411350398141</v>
+        <v>0.1171578579919182</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.133395667756845</v>
+        <v>0.1325523347712562</v>
       </c>
     </row>
     <row r="48">
@@ -11245,19 +11245,19 @@
         <v>1209999</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1157628</v>
+        <v>1155679</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1264437</v>
+        <v>1271269</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3572495590412988</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3417870501726683</v>
+        <v>0.341211720780778</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3733221369250166</v>
+        <v>0.3753393216962791</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1128</v>
@@ -11266,19 +11266,19 @@
         <v>1167700</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1112809</v>
+        <v>1110029</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1226388</v>
+        <v>1227948</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3299077685289673</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3143995787534583</v>
+        <v>0.3136142276278586</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3464888076145868</v>
+        <v>0.3469297504208666</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2264</v>
@@ -11287,19 +11287,19 @@
         <v>2377699</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>2302959</v>
+        <v>2299227</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2459231</v>
+        <v>2460296</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3432776968152741</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3324871714399215</v>
+        <v>0.3319483952515195</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3550488234787998</v>
+        <v>0.3552025481104829</v>
       </c>
     </row>
     <row r="49">
@@ -11316,19 +11316,19 @@
         <v>1037127</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>984612</v>
+        <v>981897</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1090774</v>
+        <v>1090105</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3062093828014318</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2907044249817156</v>
+        <v>0.2899028766630907</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3220486104120733</v>
+        <v>0.3218509105744487</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1043</v>
@@ -11337,19 +11337,19 @@
         <v>1107354</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1048706</v>
+        <v>1045770</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1163154</v>
+        <v>1164179</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3128584352170354</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2962888467650264</v>
+        <v>0.2954591404133898</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3286234189457812</v>
+        <v>0.3289130749961695</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2052</v>
@@ -11358,19 +11358,19 @@
         <v>2144481</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2074984</v>
+        <v>2068089</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>2232410</v>
+        <v>2227964</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3096070989913255</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2995736147213517</v>
+        <v>0.2985780335419864</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.322301783917351</v>
+        <v>0.321659926224679</v>
       </c>
     </row>
     <row r="50">
@@ -11387,19 +11387,19 @@
         <v>627814</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>584795</v>
+        <v>586733</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>670390</v>
+        <v>674651</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1853607384524968</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1726592865552502</v>
+        <v>0.1732315659068471</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1979310706231757</v>
+        <v>0.1991892633619365</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>740</v>
@@ -11408,19 +11408,19 @@
         <v>826276</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>775734</v>
+        <v>778448</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>877674</v>
+        <v>882553</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2334459692617152</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2191665482554606</v>
+        <v>0.2199332982009041</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2479675316909678</v>
+        <v>0.2493459818591809</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1344</v>
@@ -11429,19 +11429,19 @@
         <v>1454090</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1386335</v>
+        <v>1387058</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1526399</v>
+        <v>1525995</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2099326559233</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2001506808028755</v>
+        <v>0.2002549447118294</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2203721977380997</v>
+        <v>0.2203138298551883</v>
       </c>
     </row>
     <row r="51">
